--- a/src/test/java/ru/fds/tavrzcms3/testdata/loan_agreement_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/loan_agreement_update.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>номер договора 1</t>
   </si>
@@ -532,7 +532,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,6 +633,9 @@
       <c r="E3" s="2">
         <v>37654</v>
       </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
       <c r="G3">
         <v>200</v>
       </c>
